--- a/Investments.xlsx
+++ b/Investments.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="2235" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="2235"/>
   </bookViews>
   <sheets>
     <sheet name="Table -1.1" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
   <si>
     <t>C1</t>
   </si>
@@ -365,9 +365,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>Venture</t>
-  </si>
-  <si>
     <t>USA</t>
   </si>
   <si>
@@ -375,16 +372,50 @@
   </si>
   <si>
     <t>IND</t>
+  </si>
+  <si>
+    <t>venture</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Social, Finance, Analytics, Advertising</t>
+  </si>
+  <si>
+    <t>Cleantech / Semiconductors</t>
+  </si>
+  <si>
+    <t>News, Search and Messaging</t>
+  </si>
+  <si>
+    <t>Virtustream</t>
+  </si>
+  <si>
+    <t>Electric Cloud</t>
+  </si>
+  <si>
+    <t>FirstCry.com</t>
+  </si>
+  <si>
+    <t>SST Inc. (Formerly ShotSpotter)</t>
+  </si>
+  <si>
+    <t>Celltick Technologies</t>
+  </si>
+  <si>
+    <t>Manthan Systems</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -459,6 +490,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="6">
@@ -602,7 +639,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -705,6 +742,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1051,8 +1092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1099,7 +1140,7 @@
       <c r="B5" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="37">
         <v>66368</v>
       </c>
     </row>
@@ -1110,7 +1151,7 @@
       <c r="B6" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="37">
         <v>66368</v>
       </c>
     </row>
@@ -1121,7 +1162,7 @@
       <c r="B7" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="37" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1132,7 +1173,7 @@
       <c r="B8" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="37" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1143,7 +1184,9 @@
       <c r="B9" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="37">
+        <v>114949</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="11"/>
@@ -1175,7 +1218,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1265,7 +1308,7 @@
         <v>29</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1292,8 +1335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1339,7 +1382,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
@@ -1350,7 +1393,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
@@ -1361,7 +1404,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1388,7 +1431,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1443,9 +1486,15 @@
       <c r="B5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
+      <c r="C5" s="17">
+        <v>12150</v>
+      </c>
+      <c r="D5" s="17">
+        <v>628</v>
+      </c>
+      <c r="E5" s="17">
+        <v>330</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
@@ -1454,9 +1503,15 @@
       <c r="B6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
+      <c r="C6" s="38">
+        <v>108531347515</v>
+      </c>
+      <c r="D6" s="38">
+        <v>5436843539</v>
+      </c>
+      <c r="E6" s="38">
+        <v>2976543602</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
@@ -1465,9 +1520,15 @@
       <c r="B7" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
+      <c r="C7" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
@@ -1476,9 +1537,15 @@
       <c r="B8" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
+      <c r="C8" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
@@ -1487,9 +1554,15 @@
       <c r="B9" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
+      <c r="C9" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
@@ -1498,9 +1571,15 @@
       <c r="B10" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
+      <c r="C10" s="17">
+        <v>2950</v>
+      </c>
+      <c r="D10" s="17">
+        <v>147</v>
+      </c>
+      <c r="E10" s="17">
+        <v>110</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
@@ -1509,9 +1588,15 @@
       <c r="B11" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
+      <c r="C11" s="17">
+        <v>2714</v>
+      </c>
+      <c r="D11" s="17">
+        <v>133</v>
+      </c>
+      <c r="E11" s="17">
+        <v>60</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
@@ -1520,9 +1605,15 @@
       <c r="B12" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
+      <c r="C12" s="17">
+        <v>2350</v>
+      </c>
+      <c r="D12" s="17">
+        <v>130</v>
+      </c>
+      <c r="E12" s="17">
+        <v>52</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
@@ -1531,9 +1622,15 @@
       <c r="B13" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
+      <c r="C13" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19">
@@ -1542,9 +1639,15 @@
       <c r="B14" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
+      <c r="C14" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1571,7 +1674,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:E14">
+  <conditionalFormatting sqref="A5:E5 A7:E7 A6:B6 A9:E12 A8:C8 E8 A14:E14 A13:B13 D13:E13">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
